--- a/wwwroot/templates/PayrollTemplate.xlsx
+++ b/wwwroot/templates/PayrollTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\personals\dot-net\netpaypro\wwwroot\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DE2B46-F8E8-425D-B3E2-4471026022DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C60E2F-8282-45E8-BF11-957C0BD40BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6F85BFAC-A5F8-4E4C-9CEE-9C416AB49F65}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>IDNO</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>NET_PAY</t>
+  </si>
+  <si>
+    <t>MONTH</t>
+  </si>
+  <si>
+    <t>YEAR</t>
   </si>
 </sst>
 </file>
@@ -421,52 +427,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB947137-366B-4454-AA05-9F0A2BC6730A}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
     </row>
